--- a/jour34.xlsx
+++ b/jour34.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,121 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Onaiwu', 'Healey', 'Onaiwu']</t>
-  </si>
-  <si>
-    <t>['Tolisso', 'Tagliafico']</t>
-  </si>
-  <si>
-    <t>['Pellenard']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['Corduan']</t>
-  </si>
-  <si>
-    <t>['Roure', 'Michelin']</t>
-  </si>
-  <si>
-    <t>['Wahi', 'Savanier', 'Savanier']</t>
-  </si>
-  <si>
-    <t>['Cajuste']</t>
-  </si>
-  <si>
-    <t>['Silva']</t>
+    <t>['Chavalerin', 'Ripart', 'Palaversa']</t>
+  </si>
+  <si>
+    <t>['Martin', 'Andre', 'Gudmundsson', 'Fonte']</t>
+  </si>
+  <si>
+    <t>['Simon', 'Girotto']</t>
+  </si>
+  <si>
+    <t>['Sima', 'Corduan']</t>
+  </si>
+  <si>
+    <t>['Tagliafico']</t>
+  </si>
+  <si>
+    <t>['Ounahi', 'Clauss']</t>
+  </si>
+  <si>
+    <t>['Ben_Seguir', 'Embolo', 'Ben_Seguir']</t>
+  </si>
+  <si>
+    <t>['Mavididi', 'Nordin']</t>
+  </si>
+  <si>
+    <t>['Gouiri']</t>
+  </si>
+  <si>
+    <t>['Rajot', 'Gastien', 'Cisse']</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Clermont</t>
   </si>
   <si>
     <t>Toulouse</t>
   </si>
   <si>
-    <t>OL</t>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
   </si>
   <si>
     <t>Auxerre</t>
   </si>
   <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Lorient</t>
   </si>
   <si>
     <t>Reims</t>
   </si>
   <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
     <t>PSG</t>
   </si>
   <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
     <t>Brest</t>
   </si>
   <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>['Simon']</t>
-  </si>
-  <si>
-    <t>['Soler']</t>
-  </si>
-  <si>
-    <t>['Beka', 'Beka']</t>
-  </si>
-  <si>
-    <t>['Ounahi', 'Harit', 'Ounahi']</t>
-  </si>
-  <si>
-    <t>['Theate']</t>
-  </si>
-  <si>
-    <t>['Lemarechal', 'Tavares', 'Lemarechal']</t>
-  </si>
-  <si>
-    <t>['Ribeiro', 'Yoro', 'Cabella', 'Cabella']</t>
-  </si>
-  <si>
-    <t>['Valencia', 'Sylla']</t>
-  </si>
-  <si>
-    <t>['Embolo']</t>
-  </si>
-  <si>
-    <t>['Sanson']</t>
+    <t>['Healey', 'Aboukhlal']</t>
+  </si>
+  <si>
+    <t>['Valencia', 'Le_Cardinal']</t>
+  </si>
+  <si>
+    <t>['Gonzalez', 'Silla']</t>
+  </si>
+  <si>
+    <t>['Lipinski', 'Jeanvier', 'Dugimont']</t>
+  </si>
+  <si>
+    <t>['Djiku', 'Bellegarde']</t>
+  </si>
+  <si>
+    <t>['Moffi', 'Moffi', 'Moffi']</t>
+  </si>
+  <si>
+    <t>['Le_Goff', 'Laporte']</t>
+  </si>
+  <si>
+    <t>['Moalida', 'Serhuis']</t>
+  </si>
+  <si>
+    <t>['Verrati', 'Verrati']</t>
+  </si>
+  <si>
+    <t>['Magnetti']</t>
   </si>
 </sst>
 </file>
@@ -555,22 +558,22 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>3</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -578,28 +581,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -607,25 +610,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -636,25 +639,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -665,28 +668,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -694,25 +697,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I7">
         <v>3</v>
@@ -723,28 +726,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -752,25 +755,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -784,25 +787,25 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -810,25 +813,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11">
         <v>1</v>

--- a/jour34.xlsx
+++ b/jour34.xlsx
@@ -40,124 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Chavalerin', 'Ripart', 'Palaversa']</t>
-  </si>
-  <si>
-    <t>['Martin', 'Andre', 'Gudmundsson', 'Fonte']</t>
-  </si>
-  <si>
-    <t>['Simon', 'Girotto']</t>
-  </si>
-  <si>
-    <t>['Sima', 'Corduan']</t>
-  </si>
-  <si>
-    <t>['Tagliafico']</t>
-  </si>
-  <si>
-    <t>['Ounahi', 'Clauss']</t>
-  </si>
-  <si>
-    <t>['Ben_Seguir', 'Embolo', 'Ben_Seguir']</t>
-  </si>
-  <si>
-    <t>['Mavididi', 'Nordin']</t>
-  </si>
-  <si>
-    <t>['Gouiri']</t>
-  </si>
-  <si>
-    <t>['Rajot', 'Gastien', 'Cisse']</t>
+    <t>['Majer', 'Theate']</t>
+  </si>
+  <si>
+    <t>['Harit', 'Ounahi']</t>
+  </si>
+  <si>
+    <t>['Dante', 'Moffi', 'Beka', 'Brahimi']</t>
+  </si>
+  <si>
+    <t>['Lopy', 'Ito']</t>
+  </si>
+  <si>
+    <t>['Yoro', 'Fonte', 'Martin']</t>
+  </si>
+  <si>
+    <t>['Bellegarde', 'Le_Marchand', 'H.Diallo']</t>
+  </si>
+  <si>
+    <t>['Tagliafico', 'Gusto']</t>
+  </si>
+  <si>
+    <t>['Magnetti']</t>
+  </si>
+  <si>
+    <t>['Ramos']</t>
+  </si>
+  <si>
+    <t>['Guillaume', 'Capelle']</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Clermont</t>
   </si>
   <si>
     <t>Troyes</t>
   </si>
   <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
     <t>Toulouse</t>
   </si>
   <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>['Healey', 'Aboukhlal']</t>
-  </si>
-  <si>
-    <t>['Valencia', 'Le_Cardinal']</t>
-  </si>
-  <si>
-    <t>['Gonzalez', 'Silla']</t>
-  </si>
-  <si>
-    <t>['Lipinski', 'Jeanvier', 'Dugimont']</t>
-  </si>
-  <si>
-    <t>['Djiku', 'Bellegarde']</t>
-  </si>
-  <si>
-    <t>['Moffi', 'Moffi', 'Moffi']</t>
-  </si>
-  <si>
-    <t>['Le_Goff', 'Laporte']</t>
-  </si>
-  <si>
-    <t>['Moalida', 'Serhuis']</t>
-  </si>
-  <si>
-    <t>['Verrati', 'Verrati']</t>
-  </si>
-  <si>
-    <t>['Magnetti']</t>
+    <t>['Guessand', 'Coco']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['Ponceau', 'Kroupi', 'Talbi']</t>
+  </si>
+  <si>
+    <t>['Gradit', 'Pereira']</t>
+  </si>
+  <si>
+    <t>['Gonzalez', "N'Diaye", 'Roure', 'Diallo']</t>
+  </si>
+  <si>
+    <t>['Mavididi', 'Savanier', 'Sainte-Luce', 'Maouassa']</t>
+  </si>
+  <si>
+    <t>['Dembele']</t>
+  </si>
+  <si>
+    <t>['Maurer', 'Versini']</t>
+  </si>
+  <si>
+    <t>['Salmier']</t>
+  </si>
+  <si>
+    <t>['Healey', 'Healey']</t>
   </si>
 </sst>
 </file>
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -561,7 +561,7 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -581,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -590,10 +590,10 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -602,7 +602,7 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -610,7 +610,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -619,10 +619,10 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -631,7 +631,7 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -651,7 +651,7 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -660,7 +660,7 @@
         <v>41</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -668,7 +668,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -677,10 +677,10 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -689,7 +689,7 @@
         <v>42</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -697,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -706,10 +706,10 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -718,7 +718,7 @@
         <v>43</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -726,7 +726,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -735,10 +735,10 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
@@ -747,7 +747,7 @@
         <v>44</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -755,7 +755,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -764,7 +764,7 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -796,7 +796,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
@@ -805,7 +805,7 @@
         <v>46</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -813,7 +813,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -822,10 +822,10 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
@@ -834,7 +834,7 @@
         <v>47</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/jour34.xlsx
+++ b/jour34.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+  <si>
+    <t>Score dom</t>
+  </si>
   <si>
     <t>Points dom</t>
   </si>
@@ -40,124 +43,58 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Majer', 'Theate']</t>
-  </si>
-  <si>
-    <t>['Harit', 'Ounahi']</t>
-  </si>
-  <si>
-    <t>['Dante', 'Moffi', 'Beka', 'Brahimi']</t>
-  </si>
-  <si>
-    <t>['Lopy', 'Ito']</t>
-  </si>
-  <si>
-    <t>['Yoro', 'Fonte', 'Martin']</t>
-  </si>
-  <si>
-    <t>['Bellegarde', 'Le_Marchand', 'H.Diallo']</t>
-  </si>
-  <si>
-    <t>['Tagliafico', 'Gusto']</t>
-  </si>
-  <si>
-    <t>['Magnetti']</t>
-  </si>
-  <si>
-    <t>['Ramos']</t>
-  </si>
-  <si>
-    <t>['Guillaume', 'Capelle']</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>OM</t>
+    <t>Score exte</t>
+  </si>
+  <si>
+    <t>['Nordin', 'Nordin', 'Sainte-Luce']</t>
+  </si>
+  <si>
+    <t>['Brahimi', 'Brahimi']</t>
+  </si>
+  <si>
+    <t>['Wieteska', 'Rajot']</t>
+  </si>
+  <si>
+    <t>['Gomes', 'Andre']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
   </si>
   <si>
     <t>Nice</t>
   </si>
   <si>
-    <t>Reims</t>
+    <t>Clermont</t>
   </si>
   <si>
     <t>Lille</t>
   </si>
   <si>
-    <t>Strasbourg</t>
+    <t>Brest</t>
   </si>
   <si>
     <t>OL</t>
   </si>
   <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
     <t>Angers</t>
   </si>
   <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>['Guessand', 'Coco']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['Ponceau', 'Kroupi', 'Talbi']</t>
-  </si>
-  <si>
-    <t>['Gradit', 'Pereira']</t>
-  </si>
-  <si>
-    <t>['Gonzalez', "N'Diaye", 'Roure', 'Diallo']</t>
-  </si>
-  <si>
-    <t>['Mavididi', 'Savanier', 'Sainte-Luce', 'Maouassa']</t>
-  </si>
-  <si>
-    <t>['Dembele']</t>
-  </si>
-  <si>
-    <t>['Maurer', 'Versini']</t>
-  </si>
-  <si>
-    <t>['Salmier']</t>
-  </si>
-  <si>
-    <t>['Healey', 'Healey']</t>
+    <t>['Moffi', 'Brahimi', 'Pepe']</t>
+  </si>
+  <si>
+    <t>['Lepenant']</t>
+  </si>
+  <si>
+    <t>['Sanchez']</t>
+  </si>
+  <si>
+    <t>['Pepe', 'Beka']</t>
+  </si>
+  <si>
+    <t>['Mendy', 'Camara', 'Guillaume', 'Guillaume']</t>
   </si>
 </sst>
 </file>
@@ -515,13 +452,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,295 +483,186 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>56</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>57</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="K3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>51</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>43</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
         <v>18</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
-      <c r="G5" t="s">
-        <v>31</v>
+      <c r="G5">
+        <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11">
-        <v>2</v>
+      <c r="K6">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
